--- a/biology/Microbiologie/Bouillon_hypertonique/Bouillon_hypertonique.xlsx
+++ b/biology/Microbiologie/Bouillon_hypertonique/Bouillon_hypertonique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypertonique est un milieu de culture utilisé pour l'identification des enterococcus.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Peptone	5,0 g
 Extrait de viande	5,0 g
@@ -545,7 +559,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">80 g par litre. Stérilisation classique.
 </t>
@@ -576,7 +592,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture montre que la bactérie inoculée cultive en présence d'une forte concentration saline. L'absence de culture traduit la sensibilité à cette forte concentration saline(pour des bactéries de culture difficile, il est possible de fabriquer un tel milieu à partir d'une base plus riche).
 </t>
